--- a/cat-zson/src/main/resources/excel/dj.道具.xlsx
+++ b/cat-zson/src/main/resources/excel/dj.道具.xlsx
@@ -315,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -342,32 +342,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,6 +356,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -387,99 +456,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,19 +512,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,163 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,30 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -784,17 +760,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,15 +776,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,6 +794,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -841,10 +841,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,16 +853,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,115 +871,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">

--- a/cat-zson/src/main/resources/excel/dj.道具.xlsx
+++ b/cat-zson/src/main/resources/excel/dj.道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="24225" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="A5" authorId="0">
@@ -65,6 +66,28 @@
             <charset val="134"/>
           </rPr>
           <t>随便填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -315,12 +338,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,7 +365,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,36 +455,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -395,91 +464,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +519,11 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -512,25 +540,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,157 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,11 +764,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,6 +798,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -771,26 +814,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,26 +851,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,10 +869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,133 +881,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1351,7 +1379,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1468,7 +1496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="54" customHeight="1" spans="1:8">
+    <row r="5" ht="38" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,7 +1523,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="3">
-        <v>100001</v>
+        <v>200001</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
@@ -1517,7 +1545,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="3">
-        <v>100101</v>
+        <v>200002</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -1539,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="3">
-        <v>100102</v>
+        <v>200003</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
@@ -1561,7 +1589,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>100103</v>
+        <v>200004</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
@@ -1583,7 +1611,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="3">
-        <v>100104</v>
+        <v>200005</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>34</v>

--- a/cat-zson/src/main/resources/excel/dj.道具.xlsx
+++ b/cat-zson/src/main/resources/excel/dj.道具.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="24195" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
+    <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -211,12 +212,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">true </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取
+false 或者空 跳过
+end 结束 后续部分不再读取</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">true </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取
+false 或者空 跳过
+end 结束 后续部分不再读取</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">true </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取
+false 或者空 跳过
+end 结束 后续部分不再读取</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>key</t>
   </si>
@@ -263,7 +336,7 @@
     <t>道具名</t>
   </si>
   <si>
-    <t>道具描述</t>
+    <t>描述</t>
   </si>
   <si>
     <t>叠加数量</t>
@@ -309,6 +382,12 @@
     <t>可以增加血量300点</t>
   </si>
   <si>
+    <t>法力药水</t>
+  </si>
+  <si>
+    <t>可以增加法力300点</t>
+  </si>
+  <si>
     <t>9折折扣券</t>
   </si>
   <si>
@@ -331,6 +410,30 @@
   </si>
   <si>
     <t>购买商品打6折</t>
+  </si>
+  <si>
+    <t>晚礼服(衣)</t>
+  </si>
+  <si>
+    <t>草地精英(衣)</t>
+  </si>
+  <si>
+    <t>0~100</t>
+  </si>
+  <si>
+    <t>药水</t>
+  </si>
+  <si>
+    <t>101~1000</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>1001~2000</t>
+  </si>
+  <si>
+    <t>衣服</t>
   </si>
 </sst>
 </file>
@@ -338,10 +441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -365,6 +468,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -378,15 +488,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +511,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -409,7 +581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,17 +589,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,76 +611,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -520,6 +622,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -546,13 +649,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,133 +787,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,6 +867,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -797,24 +909,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -836,6 +930,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -850,17 +964,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,133 +984,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1376,10 +1479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1554,7 +1657,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1567,7 +1670,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="3">
-        <v>200003</v>
+        <v>201003</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
@@ -1589,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>200004</v>
+        <v>201004</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
@@ -1611,7 +1714,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="3">
-        <v>200005</v>
+        <v>201005</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>34</v>
@@ -1627,6 +1730,68 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
+    </row>
+    <row r="11" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <v>201006</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>202001</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>202002</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1634,4 +1799,48 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/cat-zson/src/main/resources/excel/dj.道具.xlsx
+++ b/cat-zson/src/main/resources/excel/dj.道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24195" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -441,10 +441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -467,8 +467,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,7 +506,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,56 +573,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,29 +597,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -596,21 +612,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -622,7 +623,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -643,103 +643,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,79 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,15 +867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -887,6 +878,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,11 +915,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,7 +949,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,21 +964,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,133 +984,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1599,7 +1599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="38" customHeight="1" spans="1:8">
+    <row r="5" ht="113" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
